--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.30975589121097</v>
+        <v>4.460132666666667</v>
       </c>
       <c r="H2">
-        <v>3.30975589121097</v>
+        <v>13.380398</v>
       </c>
       <c r="I2">
-        <v>0.02029956817009704</v>
+        <v>0.02674725343762847</v>
       </c>
       <c r="J2">
-        <v>0.02029956817009704</v>
+        <v>0.02674725343762847</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N2">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q2">
-        <v>84.8229708941861</v>
+        <v>139.2853254559791</v>
       </c>
       <c r="R2">
-        <v>84.8229708941861</v>
+        <v>1253.567929103812</v>
       </c>
       <c r="S2">
-        <v>0.005245504530389237</v>
+        <v>0.007695470937396288</v>
       </c>
       <c r="T2">
-        <v>0.005245504530389237</v>
+        <v>0.007695470937396288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.30975589121097</v>
+        <v>4.460132666666667</v>
       </c>
       <c r="H3">
-        <v>3.30975589121097</v>
+        <v>13.380398</v>
       </c>
       <c r="I3">
-        <v>0.02029956817009704</v>
+        <v>0.02674725343762847</v>
       </c>
       <c r="J3">
-        <v>0.02029956817009704</v>
+        <v>0.02674725343762847</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N3">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q3">
-        <v>133.615651205978</v>
+        <v>180.3935565005004</v>
       </c>
       <c r="R3">
-        <v>133.615651205978</v>
+        <v>1623.542008504504</v>
       </c>
       <c r="S3">
-        <v>0.008262873798728324</v>
+        <v>0.00996668792493793</v>
       </c>
       <c r="T3">
-        <v>0.008262873798728324</v>
+        <v>0.009966687924937928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.30975589121097</v>
+        <v>4.460132666666667</v>
       </c>
       <c r="H4">
-        <v>3.30975589121097</v>
+        <v>13.380398</v>
       </c>
       <c r="I4">
-        <v>0.02029956817009704</v>
+        <v>0.02674725343762847</v>
       </c>
       <c r="J4">
-        <v>0.02029956817009704</v>
+        <v>0.02674725343762847</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N4">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q4">
-        <v>72.03726573908361</v>
+        <v>113.1519660524169</v>
       </c>
       <c r="R4">
-        <v>72.03726573908361</v>
+        <v>1018.367694471752</v>
       </c>
       <c r="S4">
-        <v>0.004454828683878558</v>
+        <v>0.006251610953379487</v>
       </c>
       <c r="T4">
-        <v>0.004454828683878558</v>
+        <v>0.006251610953379487</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.30975589121097</v>
+        <v>4.460132666666667</v>
       </c>
       <c r="H5">
-        <v>3.30975589121097</v>
+        <v>13.380398</v>
       </c>
       <c r="I5">
-        <v>0.02029956817009704</v>
+        <v>0.02674725343762847</v>
       </c>
       <c r="J5">
-        <v>0.02029956817009704</v>
+        <v>0.02674725343762847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N5">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q5">
-        <v>37.78036855729744</v>
+        <v>51.28505996101089</v>
       </c>
       <c r="R5">
-        <v>37.78036855729744</v>
+        <v>461.565539649098</v>
       </c>
       <c r="S5">
-        <v>0.002336361157100925</v>
+        <v>0.002833483621914771</v>
       </c>
       <c r="T5">
-        <v>0.002336361157100925</v>
+        <v>0.002833483621914771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>128.740956455536</v>
+        <v>128.9378306666667</v>
       </c>
       <c r="H6">
-        <v>128.740956455536</v>
+        <v>386.813492</v>
       </c>
       <c r="I6">
-        <v>0.7896007765383765</v>
+        <v>0.7732354825034408</v>
       </c>
       <c r="J6">
-        <v>0.7896007765383765</v>
+        <v>0.7732354825034408</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N6">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q6">
-        <v>3299.394505593626</v>
+        <v>4026.594958085983</v>
       </c>
       <c r="R6">
-        <v>3299.394505593626</v>
+        <v>36239.35462277385</v>
       </c>
       <c r="S6">
-        <v>0.2040365792919778</v>
+        <v>0.2224681198480622</v>
       </c>
       <c r="T6">
-        <v>0.2040365792919778</v>
+        <v>0.2224681198480622</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>128.740956455536</v>
+        <v>128.9378306666667</v>
       </c>
       <c r="H7">
-        <v>128.740956455536</v>
+        <v>386.813492</v>
       </c>
       <c r="I7">
-        <v>0.7896007765383765</v>
+        <v>0.7732354825034408</v>
       </c>
       <c r="J7">
-        <v>0.7896007765383765</v>
+        <v>0.7732354825034408</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N7">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q7">
-        <v>5197.303758674819</v>
+        <v>5214.991476655468</v>
       </c>
       <c r="R7">
-        <v>5197.303758674819</v>
+        <v>46934.92328989921</v>
       </c>
       <c r="S7">
-        <v>0.3214044512299248</v>
+        <v>0.2881266581098316</v>
       </c>
       <c r="T7">
-        <v>0.3214044512299248</v>
+        <v>0.2881266581098316</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>128.740956455536</v>
+        <v>128.9378306666667</v>
       </c>
       <c r="H8">
-        <v>128.740956455536</v>
+        <v>386.813492</v>
       </c>
       <c r="I8">
-        <v>0.7896007765383765</v>
+        <v>0.7732354825034408</v>
       </c>
       <c r="J8">
-        <v>0.7896007765383765</v>
+        <v>0.7732354825034408</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N8">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q8">
-        <v>2802.063595178925</v>
+        <v>3271.106518311401</v>
       </c>
       <c r="R8">
-        <v>2802.063595178925</v>
+        <v>29439.95866480261</v>
       </c>
       <c r="S8">
-        <v>0.1732813308471048</v>
+        <v>0.1807276183789278</v>
       </c>
       <c r="T8">
-        <v>0.1732813308471048</v>
+        <v>0.1807276183789278</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>128.740956455536</v>
+        <v>128.9378306666667</v>
       </c>
       <c r="H9">
-        <v>128.740956455536</v>
+        <v>386.813492</v>
       </c>
       <c r="I9">
-        <v>0.7896007765383765</v>
+        <v>0.7732354825034408</v>
       </c>
       <c r="J9">
-        <v>0.7896007765383765</v>
+        <v>0.7732354825034408</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N9">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q9">
-        <v>1469.5587660181</v>
+        <v>1482.598135791477</v>
       </c>
       <c r="R9">
-        <v>1469.5587660181</v>
+        <v>13343.38322212329</v>
       </c>
       <c r="S9">
-        <v>0.09087841516936918</v>
+        <v>0.08191308616661928</v>
       </c>
       <c r="T9">
-        <v>0.09087841516936918</v>
+        <v>0.08191308616661928</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.50663857226157</v>
+        <v>3.059082666666667</v>
       </c>
       <c r="H10">
-        <v>2.50663857226157</v>
+        <v>9.177248000000002</v>
       </c>
       <c r="I10">
-        <v>0.01537384696875672</v>
+        <v>0.01834520752790531</v>
       </c>
       <c r="J10">
-        <v>0.01537384696875672</v>
+        <v>0.01834520752790531</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N10">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q10">
-        <v>64.24054753457784</v>
+        <v>95.5319845097458</v>
       </c>
       <c r="R10">
-        <v>64.24054753457784</v>
+        <v>859.7878605877122</v>
       </c>
       <c r="S10">
-        <v>0.003972674849454134</v>
+        <v>0.005278112449964361</v>
       </c>
       <c r="T10">
-        <v>0.003972674849454134</v>
+        <v>0.005278112449964361</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.50663857226157</v>
+        <v>3.059082666666667</v>
       </c>
       <c r="H11">
-        <v>2.50663857226157</v>
+        <v>9.177248000000002</v>
       </c>
       <c r="I11">
-        <v>0.01537384696875672</v>
+        <v>0.01834520752790531</v>
       </c>
       <c r="J11">
-        <v>0.01537384696875672</v>
+        <v>0.01834520752790531</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N11">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q11">
-        <v>101.1936094925146</v>
+        <v>123.7269926953671</v>
       </c>
       <c r="R11">
-        <v>101.1936094925146</v>
+        <v>1113.542934258304</v>
       </c>
       <c r="S11">
-        <v>0.006257874859176941</v>
+        <v>0.006835877888367804</v>
       </c>
       <c r="T11">
-        <v>0.006257874859176941</v>
+        <v>0.006835877888367803</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.50663857226157</v>
+        <v>3.059082666666667</v>
       </c>
       <c r="H12">
-        <v>2.50663857226157</v>
+        <v>9.177248000000002</v>
       </c>
       <c r="I12">
-        <v>0.01537384696875672</v>
+        <v>0.01834520752790531</v>
       </c>
       <c r="J12">
-        <v>0.01537384696875672</v>
+        <v>0.01834520752790531</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N12">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q12">
-        <v>54.55731325121278</v>
+        <v>77.60783006235025</v>
       </c>
       <c r="R12">
-        <v>54.55731325121278</v>
+        <v>698.4704705611522</v>
       </c>
       <c r="S12">
-        <v>0.003373857703971515</v>
+        <v>0.004287808488109247</v>
       </c>
       <c r="T12">
-        <v>0.003373857703971515</v>
+        <v>0.004287808488109247</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.50663857226157</v>
+        <v>3.059082666666667</v>
       </c>
       <c r="H13">
-        <v>2.50663857226157</v>
+        <v>9.177248000000002</v>
       </c>
       <c r="I13">
-        <v>0.01537384696875672</v>
+        <v>0.01834520752790531</v>
       </c>
       <c r="J13">
-        <v>0.01537384696875672</v>
+        <v>0.01834520752790531</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N13">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O13">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P13">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q13">
-        <v>28.61290445964902</v>
+        <v>35.17501601649423</v>
       </c>
       <c r="R13">
-        <v>28.61290445964902</v>
+        <v>316.5751441484481</v>
       </c>
       <c r="S13">
-        <v>0.001769439556154129</v>
+        <v>0.001943408701463895</v>
       </c>
       <c r="T13">
-        <v>0.001769439556154129</v>
+        <v>0.001943408701463895</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.4882795829504</v>
+        <v>30.29400666666666</v>
       </c>
       <c r="H14">
-        <v>28.4882795829504</v>
+        <v>90.88201999999998</v>
       </c>
       <c r="I14">
-        <v>0.1747258083227696</v>
+        <v>0.1816720565310254</v>
       </c>
       <c r="J14">
-        <v>0.1747258083227696</v>
+        <v>0.1816720565310254</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N14">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O14">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P14">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q14">
-        <v>730.10233664269</v>
+        <v>946.0504638050976</v>
       </c>
       <c r="R14">
-        <v>730.10233664269</v>
+        <v>8514.454174245879</v>
       </c>
       <c r="S14">
-        <v>0.04514997616959789</v>
+        <v>0.05226899406444174</v>
       </c>
       <c r="T14">
-        <v>0.04514997616959789</v>
+        <v>0.05226899406444174</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.4882795829504</v>
+        <v>30.29400666666666</v>
       </c>
       <c r="H15">
-        <v>28.4882795829504</v>
+        <v>90.88201999999998</v>
       </c>
       <c r="I15">
-        <v>0.1747258083227696</v>
+        <v>0.1816720565310254</v>
       </c>
       <c r="J15">
-        <v>0.1747258083227696</v>
+        <v>0.1816720565310254</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N15">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P15">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q15">
-        <v>1150.078783248626</v>
+        <v>1225.264809742551</v>
       </c>
       <c r="R15">
-        <v>1150.078783248626</v>
+        <v>11027.38328768296</v>
       </c>
       <c r="S15">
-        <v>0.07112157714165496</v>
+        <v>0.06769549988931325</v>
       </c>
       <c r="T15">
-        <v>0.07112157714165496</v>
+        <v>0.06769549988931325</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.4882795829504</v>
+        <v>30.29400666666666</v>
       </c>
       <c r="H16">
-        <v>28.4882795829504</v>
+        <v>90.88201999999998</v>
       </c>
       <c r="I16">
-        <v>0.1747258083227696</v>
+        <v>0.1816720565310254</v>
       </c>
       <c r="J16">
-        <v>0.1747258083227696</v>
+        <v>0.1816720565310254</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N16">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O16">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P16">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q16">
-        <v>620.0510956762569</v>
+        <v>768.5480836829421</v>
       </c>
       <c r="R16">
-        <v>620.0510956762569</v>
+        <v>6916.932753146479</v>
       </c>
       <c r="S16">
-        <v>0.03834433994890345</v>
+        <v>0.04246204273574325</v>
       </c>
       <c r="T16">
-        <v>0.03834433994890345</v>
+        <v>0.04246204273574325</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.4882795829504</v>
+        <v>30.29400666666666</v>
       </c>
       <c r="H17">
-        <v>28.4882795829504</v>
+        <v>90.88201999999998</v>
       </c>
       <c r="I17">
-        <v>0.1747258083227696</v>
+        <v>0.1816720565310254</v>
       </c>
       <c r="J17">
-        <v>0.1747258083227696</v>
+        <v>0.1816720565310254</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N17">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O17">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P17">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q17">
-        <v>325.1894513022238</v>
+        <v>348.3371604550022</v>
       </c>
       <c r="R17">
-        <v>325.1894513022238</v>
+        <v>3135.03444409502</v>
       </c>
       <c r="S17">
-        <v>0.02010991506261332</v>
+        <v>0.01924551984152718</v>
       </c>
       <c r="T17">
-        <v>0.02010991506261332</v>
+        <v>0.01924551984152718</v>
       </c>
     </row>
   </sheetData>
